--- a/src/locale/i18n.xlsx
+++ b/src/locale/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qinghework\hosipital\ferry_web\src\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EC43F3-0EEC-42FC-969E-0835DB0C2260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA7A69-A519-4E49-BD99-934CE48D8A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="470">
   <si>
     <t>short</t>
   </si>
@@ -1046,6 +1046,660 @@
   </si>
   <si>
     <t>Confirm to clone template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择流程分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择模版</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择流程任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入流程描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入流程图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请设计流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程节点顺序不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程节点标题不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批节点或处理节点的处理人类型不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批节点或处理节点的处理人不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转顺序不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转标题不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流转属性不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有流程数据，请完善流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程已删除!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认克隆流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程已克隆!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Process</t>
+  </si>
+  <si>
+    <t>Edit Process</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Please select a process category</t>
+  </si>
+  <si>
+    <t>Please select a template</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Please select a process task</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Please enter the process description</t>
+  </si>
+  <si>
+    <t>Please enter the process icon</t>
+  </si>
+  <si>
+    <t>Please design the process</t>
+  </si>
+  <si>
+    <t>Process node order cannot be empty</t>
+  </si>
+  <si>
+    <t>Process node title cannot be empty</t>
+  </si>
+  <si>
+    <t>The handler type of the approval node or processing node cannot be empty</t>
+  </si>
+  <si>
+    <t>The handler of the approval node or processing node cannot be empty</t>
+  </si>
+  <si>
+    <t>Flow order cannot be empty</t>
+  </si>
+  <si>
+    <t>Flow title cannot be empty</t>
+  </si>
+  <si>
+    <t>Flow attribute cannot be empty</t>
+  </si>
+  <si>
+    <t>No process data, please complete the process</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Process has been deleted!</t>
+  </si>
+  <si>
+    <t>Process has been cloned!</t>
+  </si>
+  <si>
+    <t>Confirm to clone process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入任务名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择任务类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能输入大小写英文及下划线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入任务内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务脚本创建成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务脚本更新成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Please enter the task name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Create Task</t>
+  </si>
+  <si>
+    <t>Edit Task</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Please select the task type</t>
+  </si>
+  <si>
+    <t>Only uppercase, lowercase letters, and underscores are allowed</t>
+  </si>
+  <si>
+    <t>Please enter the task content</t>
+  </si>
+  <si>
+    <t>Task script created successfully</t>
+  </si>
+  <si>
+    <t>Task script updated successfully</t>
+  </si>
+  <si>
+    <t>请输入部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入邮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择归属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文件拖到此处，或</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新已经存在的用户数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载模板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：仅允许导入“xls”或“xlsx”格式文件！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的邮箱地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的手机号码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，新密码是：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认删除用户编号为"{userIds}"的数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入"{name}"的新密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认导出所有用户数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户导入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认要"{text}" "{username}"用户吗?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>User Nickname</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>User Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Please select</t>
+  </si>
+  <si>
+    <t>Affiliated Department</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Drag files here, or click to upload</t>
+  </si>
+  <si>
+    <t>Do you want to update existing user data?</t>
+  </si>
+  <si>
+    <t>Download template</t>
+  </si>
+  <si>
+    <t>Note: Only "xls" or "xlsx" format files are allowed!</t>
+  </si>
+  <si>
+    <t>Username cannot be empty</t>
+  </si>
+  <si>
+    <t>User nickname cannot be empty</t>
+  </si>
+  <si>
+    <t>Affiliated department cannot be empty</t>
+  </si>
+  <si>
+    <t>User password cannot be empty</t>
+  </si>
+  <si>
+    <t>Email address cannot be empty</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address</t>
+  </si>
+  <si>
+    <t>Phone number cannot be empty</t>
+  </si>
+  <si>
+    <t>Please enter a valid phone number</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Add User</t>
+  </si>
+  <si>
+    <t>Edit User</t>
+  </si>
+  <si>
+    <t>Please enter a new password for "{name}"</t>
+  </si>
+  <si>
+    <t>Successfully modified, the new password is:</t>
+  </si>
+  <si>
+    <t>Successfully modified</t>
+  </si>
+  <si>
+    <t>Added successfully</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the data item with user ID "{userIds}"?</t>
+  </si>
+  <si>
+    <t>Deleted successfully</t>
+  </si>
+  <si>
+    <t>Are you sure you want to export all user data items?</t>
+  </si>
+  <si>
+    <t>User Import</t>
+  </si>
+  <si>
+    <t>Import Result</t>
+  </si>
+  <si>
+    <t>Click to upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to {text} the user "{username}"?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the user nickname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the user password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select the affiliated department</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the phone number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter the username</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1176,7 +1830,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1222,49 +1876,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1604,11 +2230,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1664,1533 +2290,2532 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" t="s">
-        <v>148</v>
+        <v>93</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>149</v>
+        <v>107</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C137" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C139" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C142" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C143" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C148" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C169" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C182" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C198" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C199" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C201" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C202" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C204" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C205" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C206" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C207" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C208" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C209" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C210" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C211" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C212" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C213" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C214" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C215" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C216" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C217" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C218" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C219" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C220" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C221" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C222" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C223" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C224" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C225" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C227" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C228" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C230" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A41:A43">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+  <conditionalFormatting sqref="A44:A46">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+  <conditionalFormatting sqref="A48:A49">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A50">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+  <conditionalFormatting sqref="A51:A53">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A88">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  <conditionalFormatting sqref="A55:A91">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A92">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+  <conditionalFormatting sqref="A92:A95">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A103">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A111">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:A118">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A131">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:A143">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A100">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A108">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A115">
+  <conditionalFormatting sqref="A144:A169">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116:A128">
+  <conditionalFormatting sqref="A170:A180">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A140">
+  <conditionalFormatting sqref="A181:A230">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/locale/i18n.xlsx
+++ b/src/locale/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qinghework\hosipital\ferry_web\src\locale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA7A69-A519-4E49-BD99-934CE48D8A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C5B67-3BFE-44DF-9D85-7BA80B0E6817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="791">
   <si>
     <t>short</t>
   </si>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>语言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>个人中心</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1700,6 +1692,1172 @@
   </si>
   <si>
     <t>Enter the username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入角色名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入权限字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色顺序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中，请稍后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部数据权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定数据权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本部门数据权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本部门及以下数据权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅本人数据权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限字符不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色顺序不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认要"{text}""{roleName}"角色吗?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改角色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认删除角色编号为"{roleIds}"的数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认导出所有角色数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>Please enter the role name</t>
+  </si>
+  <si>
+    <t>Permission Character</t>
+  </si>
+  <si>
+    <t>Please enter the permission character</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Role ID</t>
+  </si>
+  <si>
+    <t>Display Order</t>
+  </si>
+  <si>
+    <t>Role Order</t>
+  </si>
+  <si>
+    <t>Menu Permissions</t>
+  </si>
+  <si>
+    <t>Loading, please wait</t>
+  </si>
+  <si>
+    <t>Permission Scope</t>
+  </si>
+  <si>
+    <t>Data Permissions</t>
+  </si>
+  <si>
+    <t>All Data Permissions</t>
+  </si>
+  <si>
+    <t>Custom Data Permissions</t>
+  </si>
+  <si>
+    <t>Department Data Permissions</t>
+  </si>
+  <si>
+    <t>Department and Below Data Permissions</t>
+  </si>
+  <si>
+    <t>Personal Data Permissions</t>
+  </si>
+  <si>
+    <t>Role name cannot be empty</t>
+  </si>
+  <si>
+    <t>Permission character cannot be empty</t>
+  </si>
+  <si>
+    <t>Role order cannot be empty</t>
+  </si>
+  <si>
+    <t>Add Role</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the data item with role ID "{roleIds}"?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to export all role data items?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to {text} the role "{roleName}"?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入岗位编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入岗位名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位名称不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位编码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位顺序不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加岗位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改岗位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认删除岗位编号为"{postIds}"的数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认导出所有岗位数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Please enter the post code</t>
+  </si>
+  <si>
+    <t>Post Name</t>
+  </si>
+  <si>
+    <t>Please enter the post name</t>
+  </si>
+  <si>
+    <t>Post ID</t>
+  </si>
+  <si>
+    <t>Post Order</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Post name cannot be empty</t>
+  </si>
+  <si>
+    <t>Post code cannot be empty</t>
+  </si>
+  <si>
+    <t>Add Post</t>
+  </si>
+  <si>
+    <t>Edit Post</t>
+  </si>
+  <si>
+    <t>Are you sure you want to export all post data items?</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>请输入编码名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the code name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位顺序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post order cannot be empty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post order</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择上级部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择负责人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入联系电话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门负责人不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单顺序不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主类目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Parent Department</t>
+  </si>
+  <si>
+    <t>Select Parent Department</t>
+  </si>
+  <si>
+    <t>Please select a person in charge</t>
+  </si>
+  <si>
+    <t>Person in Charge</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Please enter the contact number</t>
+  </si>
+  <si>
+    <t>Department Status</t>
+  </si>
+  <si>
+    <t>Parent department cannot be empty</t>
+  </si>
+  <si>
+    <t>Department name cannot be empty</t>
+  </si>
+  <si>
+    <t>Department head cannot be empty</t>
+  </si>
+  <si>
+    <t>Menu order cannot be empty</t>
+  </si>
+  <si>
+    <t>Main Category</t>
+  </si>
+  <si>
+    <t>Add Department</t>
+  </si>
+  <si>
+    <t>Edit Department</t>
+  </si>
+  <si>
+    <t>是否确认删除名称为"{deptName}"的数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the data item with post ID "{postIds}"?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the data item with the name "{deptName}"?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入菜单名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级菜单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择上级菜单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入菜单标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入路由名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入组件路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否外链</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入路由地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请权限标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单标题不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加菜单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改菜单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认删除名称为"{title}"的数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Name</t>
+  </si>
+  <si>
+    <t>Please enter the menu name</t>
+  </si>
+  <si>
+    <t>Permission Identifier</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Parent Menu</t>
+  </si>
+  <si>
+    <t>Select Parent Menu</t>
+  </si>
+  <si>
+    <t>Menu Title</t>
+  </si>
+  <si>
+    <t>Please enter the menu title</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Request Method</t>
+  </si>
+  <si>
+    <t>Menu Icon</t>
+  </si>
+  <si>
+    <t>Click to select an icon</t>
+  </si>
+  <si>
+    <t>Route Name</t>
+  </si>
+  <si>
+    <t>Please enter the route name</t>
+  </si>
+  <si>
+    <t>Component Path</t>
+  </si>
+  <si>
+    <t>Please enter the component path</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>Route Address</t>
+  </si>
+  <si>
+    <t>Please enter the route address</t>
+  </si>
+  <si>
+    <t>Please enter the permission identifier</t>
+  </si>
+  <si>
+    <t>Menu Status</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Menu title cannot be empty</t>
+  </si>
+  <si>
+    <t>Add Menu</t>
+  </si>
+  <si>
+    <t>Edit Menu</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the data item with the name "{title}"?</t>
+  </si>
+  <si>
+    <t>菜单类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入登录地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录地点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认删除访问编号为"{infoIds}"的数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认清空所有登录日志数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认导出所有操作日志数据项?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login Address</t>
+  </si>
+  <si>
+    <t>Please enter the login address</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Login Location</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Operation Information</t>
+  </si>
+  <si>
+    <t>Login Date</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the data item with access ID "{infoIds}"?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to clear all login log data items?</t>
+  </si>
+  <si>
+    <t>Cleared successfully</t>
+  </si>
+  <si>
+    <t>Are you sure you want to export all operation log data items?</t>
+  </si>
+  <si>
+    <t>Login Status</t>
+  </si>
+  <si>
+    <t>配置信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统Logo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP登陆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldap配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldap登陆验证通过后，会将用户同步至本地数据库中，请在此配置数据同步的映射关系。单击Ldap字段可编辑，双击可隐藏编辑。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldap字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入系统名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度在 3 到 15 个字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请设置Logo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像图片大小不能超过 2MB!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration Information</t>
+  </si>
+  <si>
+    <t>System Name</t>
+  </si>
+  <si>
+    <t>System Logo</t>
+  </si>
+  <si>
+    <t>Captcha</t>
+  </si>
+  <si>
+    <t>LDAP Login</t>
+  </si>
+  <si>
+    <t>Ldap Configuration</t>
+  </si>
+  <si>
+    <t>After successful Ldap login verification, the user will be synchronized to the local database. Please configure the mapping relationship for data synchronization here. Click the Ldap field to edit, double-click to hide editing.</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Nickname</t>
+  </si>
+  <si>
+    <t>Ldap Field</t>
+  </si>
+  <si>
+    <t>Please enter the system name</t>
+  </si>
+  <si>
+    <t>Length must be between 3 and 15 characters</t>
+  </si>
+  <si>
+    <t>Please set the Logo</t>
+  </si>
+  <si>
+    <t>Set successfully</t>
+  </si>
+  <si>
+    <t>Uploaded avatar image size cannot exceed 2MB!</t>
+  </si>
+  <si>
+    <t>确定注销并退出系统吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to log out and exit the system?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户邮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属角色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本资料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Affiliated Role</t>
+  </si>
+  <si>
+    <t>Basic Information</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personal Center</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入旧密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入新密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次输入的密码不一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧密码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度在 6 到 20 个字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the old password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the new password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please confirm the password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The passwords you entered do not match</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old password cannot be empty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>New password cannot be empty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length must be between 6 and 20 characters</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm password cannot be empty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传头像</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改头像</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件格式错误，请上传图片类型,如：JPG，PNG后缀的文件。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click to upload avatar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change avatar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>File format error, please upload image files with JPG or PNG extensions.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录中...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码不能为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logging in...</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Verification code cannot be empty</t>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有权限去该页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者你可以去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>You do not have permission to access this page</t>
+  </si>
+  <si>
+    <t>Or you can go to</t>
+  </si>
+  <si>
+    <t>抱歉，您找的页面不存在。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请检查您访问的地址是否正确，通常在切换用户时，若您的用户没有上个用户退出时的页面权限，也会触发此报错，请知悉，或者点击一下按钮返回首页。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回首页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, the page you are looking for does not exist.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please check if the URL you entered is correct. This error may also occur when switching users, if your user does not have permission to access the previous user's page. Please be aware of this, or click the button below to return to the homepage.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1748,11 +2906,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1820,17 +2980,120 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2230,11 +3493,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2260,2562 +3523,4397 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>707</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>47</v>
+      <c r="C31" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="C36" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="C42" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>102</v>
+      <c r="C43" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C128" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C130" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C147" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C153" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C157" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C158" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C159" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C161" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C162" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C163" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C164" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C165" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C166" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C167" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C168" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C170" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C171" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C172" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C173" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C174" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C175" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C176" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C177" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C178" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C179" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C181" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C182" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C183" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C184" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C185" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C186" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C187" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C188" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C189" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C190" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C191" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C193" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C194" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C195" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C196" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C197" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C198" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C199" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C201" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C202" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C204" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C205" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C206" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C207" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C208" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C209" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C210" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C211" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C212" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C213" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C214" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C215" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C216" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C217" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C218" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C219" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C220" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C221" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C222" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C223" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C224" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C225" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C226" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C227" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C230" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C231" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C232" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C234" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C235" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C237" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C238" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C240" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C241" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C243" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C244" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C245" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C246" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C247" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C248" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C249" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C250" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C251" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C252" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C253" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C254" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C255" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C256" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C257" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C259" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C260" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C262" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C263" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C265" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C266" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C267" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C268" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C269" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C270" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C273" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C274" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C275" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C276" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C278" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C279" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C280" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C281" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C282" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C283" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C284" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C285" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C286" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C287" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C288" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C290" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C291" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C292" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C293" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C295" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C296" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C297" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C298" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C299" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C300" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C301" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C302" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C303" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C304" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C305" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C306" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C307" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C308" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C309" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C310" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C311" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C312" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C313" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C314" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C315" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C316" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C317" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C318" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C319" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C320" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C322" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C323" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C324" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C325" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C326" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C327" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C328" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C329" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C330" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C331" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C332" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C333" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C334" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C335" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C336" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C337" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C338" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C339" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C340" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C341" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A342" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C342" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A343" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C343" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C344" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C345" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C346" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C347" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C348" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C349" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C351" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C352" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C353" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C354" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A355" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C355" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C356" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A357" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C357" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A361" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A363" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A365" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A375" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A376" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A377" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C380" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C230" t="s">
-        <v>458</v>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A385" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A386" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A387" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A388" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A389" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A390" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A391" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A392" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A393" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A44:A46">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A53">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:A91">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A95">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A103">
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A111">
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:A118">
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A131">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:A143">
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144:A169">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:A180">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181:A230">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A231:A255">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256:A270">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273:A288">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A53">
+  <conditionalFormatting sqref="A290:A320">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A91">
+  <conditionalFormatting sqref="A322:A333">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:A95">
+  <conditionalFormatting sqref="A334:A349">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A103">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  <conditionalFormatting sqref="A351:A357">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A111">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  <conditionalFormatting sqref="A358">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:A118">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="A360:A371">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119:A131">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="A372:A374">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132:A143">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="A375:A378">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144:A169">
+  <conditionalFormatting sqref="A379:A387">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A170:A180">
+  <conditionalFormatting sqref="A388:A390">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A181:A230">
+  <conditionalFormatting sqref="A391:A393">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
